--- a/predictions полгода до/Прогнозы_GP_Mater_Per.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Mater_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16100355.7815206</v>
+        <v>12590559.94204165</v>
       </c>
       <c r="C2" t="n">
-        <v>15953247.24883576</v>
+        <v>12590633.60024973</v>
       </c>
       <c r="D2" t="n">
-        <v>15780500.92743311</v>
+        <v>12590748.61203603</v>
       </c>
       <c r="E2" t="n">
-        <v>15582859.28240008</v>
+        <v>12590831.81863121</v>
       </c>
       <c r="F2" t="n">
-        <v>15361201.04766346</v>
+        <v>12590830.29406361</v>
       </c>
       <c r="G2" t="n">
-        <v>15116532.75471961</v>
+        <v>12590745.01052156</v>
       </c>
       <c r="H2" t="n">
-        <v>14849979.18274091</v>
+        <v>12590630.21473306</v>
       </c>
       <c r="I2" t="n">
-        <v>14562772.85993015</v>
+        <v>12590558.92323191</v>
       </c>
       <c r="J2" t="n">
-        <v>14256242.75970904</v>
+        <v>12590576.48340639</v>
       </c>
       <c r="K2" t="n">
-        <v>13931802.33307862</v>
+        <v>12590671.72798575</v>
       </c>
       <c r="L2" t="n">
-        <v>13590937.03373511</v>
+        <v>12590784.07325198</v>
       </c>
       <c r="M2" t="n">
-        <v>13235191.48389294</v>
+        <v>12590842.0567345</v>
       </c>
     </row>
     <row r="3">
@@ -571,394 +571,394 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3241036.737029859</v>
+        <v>1141405.890164965</v>
       </c>
       <c r="C4" t="n">
-        <v>2916985.360125781</v>
+        <v>1141405.890221862</v>
       </c>
       <c r="D4" t="n">
-        <v>2448648.006403322</v>
+        <v>1141405.890278031</v>
       </c>
       <c r="E4" t="n">
-        <v>1950206.278398467</v>
+        <v>1141405.890333473</v>
       </c>
       <c r="F4" t="n">
-        <v>1491915.497640909</v>
+        <v>1141405.890388188</v>
       </c>
       <c r="G4" t="n">
-        <v>1105892.119096318</v>
+        <v>1141405.890442175</v>
       </c>
       <c r="H4" t="n">
-        <v>799322.4346500976</v>
+        <v>1141405.890495435</v>
       </c>
       <c r="I4" t="n">
-        <v>565963.734909226</v>
+        <v>1141405.890547967</v>
       </c>
       <c r="J4" t="n">
-        <v>393942.7166614622</v>
+        <v>1141405.890599772</v>
       </c>
       <c r="K4" t="n">
-        <v>270287.5609886735</v>
+        <v>1141405.890650849</v>
       </c>
       <c r="L4" t="n">
-        <v>183183.3125678276</v>
+        <v>1141405.890701197</v>
       </c>
       <c r="M4" t="n">
-        <v>122841.5171284808</v>
+        <v>1141405.890750816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10954171.39590448</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10954171.39623713</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10954171.3965683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10954171.39689799</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10954171.39722624</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10954171.39755302</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10954171.3978783</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10954171.39820219</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10954171.39852455</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10954171.39884549</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10954171.39916492</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10954171.39948291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4337165.208497766</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="C6" t="n">
-        <v>4337149.43019473</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="D6" t="n">
-        <v>4337165.027684355</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="E6" t="n">
-        <v>4337205.94655717</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="F6" t="n">
-        <v>4337245.112558217</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="G6" t="n">
-        <v>4337224.012717818</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="H6" t="n">
-        <v>4337124.182005298</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="I6" t="n">
-        <v>4337165.066638975</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="J6" t="n">
-        <v>4337162.152061144</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="K6" t="n">
-        <v>4337241.335197157</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="L6" t="n">
-        <v>4337199.230990041</v>
+        <v>3352387.582927953</v>
       </c>
       <c r="M6" t="n">
-        <v>4337222.571109276</v>
+        <v>3352387.582927953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1638005.695233866</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1638005.695233868</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1638005.695233868</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1638005.69523387</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1638005.69523387</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1638005.695233871</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1638005.695233871</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1638005.69523387</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1638005.695233869</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1638005.695233869</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1638005.695233868</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1638005.695233866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>775081.9778532534</v>
+        <v>15481059.237324</v>
       </c>
       <c r="C8" t="n">
-        <v>775081.980142178</v>
+        <v>15481059.226416</v>
       </c>
       <c r="D8" t="n">
-        <v>775081.9821719644</v>
+        <v>15481059.21438758</v>
       </c>
       <c r="E8" t="n">
-        <v>775081.9839399632</v>
+        <v>15481059.20123883</v>
       </c>
       <c r="F8" t="n">
-        <v>775081.9854438655</v>
+        <v>15481059.18696982</v>
       </c>
       <c r="G8" t="n">
-        <v>775081.9866817084</v>
+        <v>15481059.17158065</v>
       </c>
       <c r="H8" t="n">
-        <v>775081.9876518756</v>
+        <v>15481059.15507142</v>
       </c>
       <c r="I8" t="n">
-        <v>775081.988353101</v>
+        <v>15481059.13744223</v>
       </c>
       <c r="J8" t="n">
-        <v>775081.9887844692</v>
+        <v>15481059.11869321</v>
       </c>
       <c r="K8" t="n">
-        <v>775081.9889454163</v>
+        <v>15481059.09882446</v>
       </c>
       <c r="L8" t="n">
-        <v>775081.9888357327</v>
+        <v>15481059.07783612</v>
       </c>
       <c r="M8" t="n">
-        <v>775081.9884555619</v>
+        <v>15481059.05572832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2456551.864537384</v>
+        <v>13097018.08320221</v>
       </c>
       <c r="C9" t="n">
-        <v>2123846.558329177</v>
+        <v>13098020.42499984</v>
       </c>
       <c r="D9" t="n">
-        <v>1751028.034849688</v>
+        <v>13098858.30245472</v>
       </c>
       <c r="E9" t="n">
-        <v>1392003.736771685</v>
+        <v>13097200.87510017</v>
       </c>
       <c r="F9" t="n">
-        <v>1075312.091452162</v>
+        <v>13097658.83653845</v>
       </c>
       <c r="G9" t="n">
-        <v>811714.3410672306</v>
+        <v>13098958.20877693</v>
       </c>
       <c r="H9" t="n">
-        <v>601232.9866644687</v>
+        <v>13097484.35591855</v>
       </c>
       <c r="I9" t="n">
-        <v>438343.7626344879</v>
+        <v>13097337.29581026</v>
       </c>
       <c r="J9" t="n">
-        <v>315335.9811015804</v>
+        <v>13098926.11645392</v>
       </c>
       <c r="K9" t="n">
-        <v>224259.3303899812</v>
+        <v>13097830.9907921</v>
       </c>
       <c r="L9" t="n">
-        <v>157911.1083399786</v>
+        <v>13097098.37559991</v>
       </c>
       <c r="M9" t="n">
-        <v>110230.6916103577</v>
+        <v>13098766.27682383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2940549.786582716</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2940549.791432642</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2940549.796041463</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2940549.800409039</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2940549.804535237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2940549.808419934</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2940549.812063009</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2940549.815464356</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2940549.818623868</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2940549.821541452</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2940549.824217019</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2940549.826650487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>11509086.88050228</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10867171.86225695</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10056174.07287021</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9142528.910940219</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8184807.101675794</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7229740.652397981</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6311680.522807331</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5453776.552776512</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4669871.863368203</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3966546.032267119</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3345013.739502066</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2802748.451368172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1776622.14698961</v>
+        <v>32278033.63834589</v>
       </c>
       <c r="C12" t="n">
-        <v>1776622.146302631</v>
+        <v>30471366.57732341</v>
       </c>
       <c r="D12" t="n">
-        <v>1776622.145607435</v>
+        <v>30263954.67107782</v>
       </c>
       <c r="E12" t="n">
-        <v>1776622.144904027</v>
+        <v>30246961.88231339</v>
       </c>
       <c r="F12" t="n">
-        <v>1776622.144192411</v>
+        <v>30245785.42471151</v>
       </c>
       <c r="G12" t="n">
-        <v>1776622.143472592</v>
+        <v>30245711.7861969</v>
       </c>
       <c r="H12" t="n">
-        <v>1776622.142744575</v>
+        <v>30245707.47610207</v>
       </c>
       <c r="I12" t="n">
-        <v>1776622.142008367</v>
+        <v>30245707.23562669</v>
       </c>
       <c r="J12" t="n">
-        <v>1776622.141263968</v>
+        <v>30245707.22268271</v>
       </c>
       <c r="K12" t="n">
-        <v>1776622.140511389</v>
+        <v>30245707.22200515</v>
       </c>
       <c r="L12" t="n">
-        <v>1776622.13975063</v>
+        <v>30245707.22197046</v>
       </c>
       <c r="M12" t="n">
-        <v>1776622.138981699</v>
+        <v>30245707.22196872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1001,2753 +1001,1635 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745149.3142541456</v>
+        <v>90226.89548298903</v>
       </c>
       <c r="C14" t="n">
-        <v>745149.3142541456</v>
+        <v>90416.83291124832</v>
       </c>
       <c r="D14" t="n">
-        <v>745149.3142541456</v>
+        <v>90606.59002834652</v>
       </c>
       <c r="E14" t="n">
-        <v>745149.3142541456</v>
+        <v>90796.16445743758</v>
       </c>
       <c r="F14" t="n">
-        <v>745149.3142541456</v>
+        <v>90985.55383763369</v>
       </c>
       <c r="G14" t="n">
-        <v>745149.3142541456</v>
+        <v>91174.75582394935</v>
       </c>
       <c r="H14" t="n">
-        <v>745149.3142541456</v>
+        <v>91363.76808721852</v>
       </c>
       <c r="I14" t="n">
-        <v>745149.3142541456</v>
+        <v>91552.58831404056</v>
       </c>
       <c r="J14" t="n">
-        <v>745149.3142541456</v>
+        <v>91741.21420670301</v>
       </c>
       <c r="K14" t="n">
-        <v>745149.3142541456</v>
+        <v>91929.64348311815</v>
       </c>
       <c r="L14" t="n">
-        <v>745149.3142541456</v>
+        <v>92117.87387675606</v>
       </c>
       <c r="M14" t="n">
-        <v>745149.3142541456</v>
+        <v>92305.90313657932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559804.210183756</v>
+        <v>1381790.746797518</v>
       </c>
       <c r="C15" t="n">
-        <v>519301.4185231755</v>
+        <v>1375717.751145456</v>
       </c>
       <c r="D15" t="n">
-        <v>472614.6436433551</v>
+        <v>1381790.413010916</v>
       </c>
       <c r="E15" t="n">
-        <v>423712.4193417508</v>
+        <v>1375718.225930768</v>
       </c>
       <c r="F15" t="n">
-        <v>375683.5108007087</v>
+        <v>1381790.037157265</v>
       </c>
       <c r="G15" t="n">
-        <v>330644.5429523358</v>
+        <v>1375718.739939964</v>
       </c>
       <c r="H15" t="n">
-        <v>289855.3345870364</v>
+        <v>1381789.61923922</v>
       </c>
       <c r="I15" t="n">
-        <v>253905.3566449426</v>
+        <v>1375719.293163812</v>
       </c>
       <c r="J15" t="n">
-        <v>222903.5966949805</v>
+        <v>1381789.159260052</v>
       </c>
       <c r="K15" t="n">
-        <v>196642.4018668845</v>
+        <v>1375719.885592607</v>
       </c>
       <c r="L15" t="n">
-        <v>174726.1615206032</v>
+        <v>1381788.657223654</v>
       </c>
       <c r="M15" t="n">
-        <v>156665.6423485445</v>
+        <v>1375720.517216181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800191.1661456313</v>
+        <v>4270054.020031222</v>
       </c>
       <c r="C16" t="n">
-        <v>700316.5353323641</v>
+        <v>4269390.322690813</v>
       </c>
       <c r="D16" t="n">
-        <v>587805.5025654231</v>
+        <v>4269214.04687584</v>
       </c>
       <c r="E16" t="n">
-        <v>478642.5362257556</v>
+        <v>4269900.278157327</v>
       </c>
       <c r="F16" t="n">
-        <v>381783.2721407028</v>
+        <v>4269993.227979018</v>
       </c>
       <c r="G16" t="n">
-        <v>300840.8996162447</v>
+        <v>4269296.670841774</v>
       </c>
       <c r="H16" t="n">
-        <v>236055.9115725439</v>
+        <v>4269286.678047068</v>
       </c>
       <c r="I16" t="n">
-        <v>185866.1535168354</v>
+        <v>4269984.585944743</v>
       </c>
       <c r="J16" t="n">
-        <v>147963.5601060547</v>
+        <v>4269911.154677359</v>
       </c>
       <c r="K16" t="n">
-        <v>119922.1896019297</v>
+        <v>4269221.533125507</v>
       </c>
       <c r="L16" t="n">
-        <v>99524.11424924064</v>
+        <v>4269378.40875471</v>
       </c>
       <c r="M16" t="n">
-        <v>84894.49288479688</v>
+        <v>4270048.093100166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>656306.7332197167</v>
+        <v>1949050.662205148</v>
       </c>
       <c r="C17" t="n">
-        <v>656306.7332197223</v>
+        <v>1952321.290504098</v>
       </c>
       <c r="D17" t="n">
-        <v>656306.7332197269</v>
+        <v>1955589.281604312</v>
       </c>
       <c r="E17" t="n">
-        <v>656306.7332197353</v>
+        <v>1958854.608424746</v>
       </c>
       <c r="F17" t="n">
-        <v>656306.7332197428</v>
+        <v>1962117.244033888</v>
       </c>
       <c r="G17" t="n">
-        <v>656306.7332197474</v>
+        <v>1965377.161649354</v>
       </c>
       <c r="H17" t="n">
-        <v>656306.733219754</v>
+        <v>1968634.334637485</v>
       </c>
       <c r="I17" t="n">
-        <v>656306.7332197642</v>
+        <v>1971888.736512549</v>
       </c>
       <c r="J17" t="n">
-        <v>656306.7332197679</v>
+        <v>1975140.340936437</v>
       </c>
       <c r="K17" t="n">
-        <v>656306.7332197726</v>
+        <v>1978389.121718038</v>
       </c>
       <c r="L17" t="n">
-        <v>656306.733219781</v>
+        <v>1981635.052812867</v>
       </c>
       <c r="M17" t="n">
-        <v>656306.7332197875</v>
+        <v>1984878.108322307</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2376146.191673783</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2376111.441394535</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2376056.500746544</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2375984.491649996</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2375899.505632446</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2375806.371215936</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2375710.379482394</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2375616.983437471</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2375531.488264448</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2375458.750057541</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2375402.900123844</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2375367.110478024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220363.4114092813</v>
+        <v>4790205.27737479</v>
       </c>
       <c r="C19" t="n">
-        <v>129660.0257416528</v>
+        <v>4790046.435586071</v>
       </c>
       <c r="D19" t="n">
-        <v>161350.308928242</v>
+        <v>4790164.373042413</v>
       </c>
       <c r="E19" t="n">
-        <v>203445.5344950113</v>
+        <v>4790226.864273794</v>
       </c>
       <c r="F19" t="n">
-        <v>200081.2438899573</v>
+        <v>4790057.995448619</v>
       </c>
       <c r="G19" t="n">
-        <v>124736.4212913838</v>
+        <v>4790135.32692057</v>
       </c>
       <c r="H19" t="n">
-        <v>171510.6391166979</v>
+        <v>4790240.008383435</v>
       </c>
       <c r="I19" t="n">
-        <v>218943.79257892</v>
+        <v>4790074.313366456</v>
       </c>
       <c r="J19" t="n">
-        <v>172698.5889778639</v>
+        <v>4790106.160021326</v>
       </c>
       <c r="K19" t="n">
-        <v>132040.3223088518</v>
+        <v>4790243.419946201</v>
       </c>
       <c r="L19" t="n">
-        <v>178908.2328293566</v>
+        <v>4790098.643056754</v>
       </c>
       <c r="M19" t="n">
-        <v>226765.4129480158</v>
+        <v>4790080.706858052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2123340.484020405</v>
+        <v>1523782.820548444</v>
       </c>
       <c r="C20" t="n">
-        <v>2120135.37676894</v>
+        <v>2010520.957347655</v>
       </c>
       <c r="D20" t="n">
-        <v>2116920.590301149</v>
+        <v>2431732.747697827</v>
       </c>
       <c r="E20" t="n">
-        <v>2113698.684186216</v>
+        <v>2242369.199816477</v>
       </c>
       <c r="F20" t="n">
-        <v>2110472.212510178</v>
+        <v>1329048.282892645</v>
       </c>
       <c r="G20" t="n">
-        <v>2107243.721636197</v>
+        <v>1819186.8693923</v>
       </c>
       <c r="H20" t="n">
-        <v>2104015.748006858</v>
+        <v>2150840.661148173</v>
       </c>
       <c r="I20" t="n">
-        <v>2100790.815990889</v>
+        <v>1965685.429480895</v>
       </c>
       <c r="J20" t="n">
-        <v>2097571.435776431</v>
+        <v>1132922.145837415</v>
       </c>
       <c r="K20" t="n">
-        <v>2094360.101312919</v>
+        <v>1609925.70086934</v>
       </c>
       <c r="L20" t="n">
-        <v>2091159.288303407</v>
+        <v>1861181.638133403</v>
       </c>
       <c r="M20" t="n">
-        <v>2087971.452249046</v>
+        <v>1683460.331871914</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>904321.1338869497</v>
+        <v>2941264.175055885</v>
       </c>
       <c r="C21" t="n">
-        <v>904321.1338869497</v>
+        <v>2752618.561609997</v>
       </c>
       <c r="D21" t="n">
-        <v>904321.1338869497</v>
+        <v>2580503.198728628</v>
       </c>
       <c r="E21" t="n">
-        <v>904321.1338869497</v>
+        <v>2425741.513189622</v>
       </c>
       <c r="F21" t="n">
-        <v>904321.1338869497</v>
+        <v>2307571.10768407</v>
       </c>
       <c r="G21" t="n">
-        <v>904321.1338869497</v>
+        <v>2235307.798480898</v>
       </c>
       <c r="H21" t="n">
-        <v>904321.1338869497</v>
+        <v>2208470.019727731</v>
       </c>
       <c r="I21" t="n">
-        <v>904321.1338869497</v>
+        <v>2220143.559543281</v>
       </c>
       <c r="J21" t="n">
-        <v>904321.1338869497</v>
+        <v>2261440.637013002</v>
       </c>
       <c r="K21" t="n">
-        <v>904321.1338869497</v>
+        <v>2325169.375608692</v>
       </c>
       <c r="L21" t="n">
-        <v>904321.1338869497</v>
+        <v>2407358.034779723</v>
       </c>
       <c r="M21" t="n">
-        <v>904321.1338869497</v>
+        <v>2506577.283518131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418089.3451869756</v>
+        <v>9007501.560136277</v>
       </c>
       <c r="C22" t="n">
-        <v>409790.2910490668</v>
+        <v>8987189.169657104</v>
       </c>
       <c r="D22" t="n">
-        <v>408755.3380492773</v>
+        <v>8960329.498283485</v>
       </c>
       <c r="E22" t="n">
-        <v>408650.746683458</v>
+        <v>8926975.271417622</v>
       </c>
       <c r="F22" t="n">
-        <v>408781.4655593918</v>
+        <v>8887193.851587001</v>
       </c>
       <c r="G22" t="n">
-        <v>408421.3917981883</v>
+        <v>8841066.983815961</v>
       </c>
       <c r="H22" t="n">
-        <v>408644.7421540932</v>
+        <v>8788690.487722397</v>
       </c>
       <c r="I22" t="n">
-        <v>408577.8020295356</v>
+        <v>8730173.896966785</v>
       </c>
       <c r="J22" t="n">
-        <v>408442.4814082838</v>
+        <v>8665640.047798233</v>
       </c>
       <c r="K22" t="n">
-        <v>408779.7526061567</v>
+        <v>8595224.621381531</v>
       </c>
       <c r="L22" t="n">
-        <v>408340.4729955308</v>
+        <v>8519075.637682604</v>
       </c>
       <c r="M22" t="n">
-        <v>408655.8460174035</v>
+        <v>8437352.909269247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6602476.561501453</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6602476.561500594</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6602476.561499691</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6602476.561498744</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6602476.56149775</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6602476.56149671</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6602476.561495624</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6602476.561494495</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6602476.561493317</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6602476.561492095</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6602476.561490826</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6602476.561489512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7760056.832513954</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="C24" t="n">
-        <v>7275115.234891443</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="D24" t="n">
-        <v>7641831.91028977</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="E24" t="n">
-        <v>8315422.913528651</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="F24" t="n">
-        <v>8379363.831107311</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="G24" t="n">
-        <v>7622155.614017775</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="H24" t="n">
-        <v>7260167.494509547</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="I24" t="n">
-        <v>7566980.030609476</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="J24" t="n">
-        <v>8221678.254297931</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="K24" t="n">
-        <v>8446004.545787785</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="L24" t="n">
-        <v>7728971.40706105</v>
+        <v>5504446.776003275</v>
       </c>
       <c r="M24" t="n">
-        <v>7262475.190717066</v>
+        <v>5504446.776003275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2150444.126002822</v>
+        <v>4345493.343297058</v>
       </c>
       <c r="C25" t="n">
-        <v>2075026.745529836</v>
+        <v>4345493.343509137</v>
       </c>
       <c r="D25" t="n">
-        <v>1998960.371672612</v>
+        <v>4345493.343690862</v>
       </c>
       <c r="E25" t="n">
-        <v>1922547.518152239</v>
+        <v>4345493.343842209</v>
       </c>
       <c r="F25" t="n">
-        <v>1846077.003065824</v>
+        <v>4345493.343963156</v>
       </c>
       <c r="G25" t="n">
-        <v>1769822.592619899</v>
+        <v>4345493.344053681</v>
       </c>
       <c r="H25" t="n">
-        <v>1694041.873425962</v>
+        <v>4345493.344113775</v>
       </c>
       <c r="I25" t="n">
-        <v>1618975.350966095</v>
+        <v>4345493.344143424</v>
       </c>
       <c r="J25" t="n">
-        <v>1544845.768815357</v>
+        <v>4345493.344142631</v>
       </c>
       <c r="K25" t="n">
-        <v>1471857.640508179</v>
+        <v>4345493.344111389</v>
       </c>
       <c r="L25" t="n">
-        <v>1400196.983584817</v>
+        <v>4345493.344049705</v>
       </c>
       <c r="M25" t="n">
-        <v>1330031.24336763</v>
+        <v>4345493.34395759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9734821.138594648</v>
+        <v>8610901.46564723</v>
       </c>
       <c r="C26" t="n">
-        <v>7417831.450131652</v>
+        <v>8529921.616670057</v>
       </c>
       <c r="D26" t="n">
-        <v>4977793.725140815</v>
+        <v>8440340.646941347</v>
       </c>
       <c r="E26" t="n">
-        <v>4757704.343029258</v>
+        <v>8342614.100411447</v>
       </c>
       <c r="F26" t="n">
-        <v>3765178.664948843</v>
+        <v>8237270.997481523</v>
       </c>
       <c r="G26" t="n">
-        <v>4259083.137948295</v>
+        <v>8124911.405249476</v>
       </c>
       <c r="H26" t="n">
-        <v>3581356.704895159</v>
+        <v>8006202.691476281</v>
       </c>
       <c r="I26" t="n">
-        <v>4187988.691858838</v>
+        <v>7881874.61838627</v>
       </c>
       <c r="J26" t="n">
-        <v>3561728.311103346</v>
+        <v>7752713.465395506</v>
       </c>
       <c r="K26" t="n">
-        <v>4175549.77066661</v>
+        <v>7619555.388828668</v>
       </c>
       <c r="L26" t="n">
-        <v>3562906.385230189</v>
+        <v>7483279.23167913</v>
       </c>
       <c r="M26" t="n">
-        <v>4169408.364134443</v>
+        <v>7344798.988410141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7186121.675391364</v>
+        <v>2936684.602389093</v>
       </c>
       <c r="C27" t="n">
-        <v>7185260.865674465</v>
+        <v>2936684.602410094</v>
       </c>
       <c r="D27" t="n">
-        <v>7184951.26783392</v>
+        <v>2936684.602430285</v>
       </c>
       <c r="E27" t="n">
-        <v>7185471.883368531</v>
+        <v>2936684.602449666</v>
       </c>
       <c r="F27" t="n">
-        <v>7186353.32972106</v>
+        <v>2936684.602468236</v>
       </c>
       <c r="G27" t="n">
-        <v>7186800.932343333</v>
+        <v>2936684.602485998</v>
       </c>
       <c r="H27" t="n">
-        <v>7186411.039248297</v>
+        <v>2936684.602502947</v>
       </c>
       <c r="I27" t="n">
-        <v>7185535.155066476</v>
+        <v>2936684.602519086</v>
       </c>
       <c r="J27" t="n">
-        <v>7184963.11501874</v>
+        <v>2936684.602534417</v>
       </c>
       <c r="K27" t="n">
-        <v>7185210.670828233</v>
+        <v>2936684.602548935</v>
       </c>
       <c r="L27" t="n">
-        <v>7186054.525336094</v>
+        <v>2936684.602562645</v>
       </c>
       <c r="M27" t="n">
-        <v>7186733.96370595</v>
+        <v>2936684.602575543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344019.565614492</v>
+        <v>7481514.329468321</v>
       </c>
       <c r="C28" t="n">
-        <v>2385953.178034216</v>
+        <v>7481515.187587719</v>
       </c>
       <c r="D28" t="n">
-        <v>2427632.644018382</v>
+        <v>7481516.27872408</v>
       </c>
       <c r="E28" t="n">
-        <v>2469049.083028913</v>
+        <v>7481516.947739359</v>
       </c>
       <c r="F28" t="n">
-        <v>2510193.933031671</v>
+        <v>7481516.792944441</v>
       </c>
       <c r="G28" t="n">
-        <v>2551058.943660252</v>
+        <v>7481515.907282836</v>
       </c>
       <c r="H28" t="n">
-        <v>2591636.169500254</v>
+        <v>7481514.822521539</v>
       </c>
       <c r="I28" t="n">
-        <v>2631917.963492408</v>
+        <v>7481514.189966654</v>
       </c>
       <c r="J28" t="n">
-        <v>2671896.970452517</v>
+        <v>7481514.389413088</v>
       </c>
       <c r="K28" t="n">
-        <v>2711566.120706379</v>
+        <v>7481515.3011122</v>
       </c>
       <c r="L28" t="n">
-        <v>2750918.623837933</v>
+        <v>7481516.377666272</v>
       </c>
       <c r="M28" t="n">
-        <v>2789947.962548718</v>
+        <v>7481516.97269248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11849307.95745542</v>
+        <v>937703.4337848276</v>
       </c>
       <c r="C29" t="n">
-        <v>11700261.46548303</v>
+        <v>952284.3505986147</v>
       </c>
       <c r="D29" t="n">
-        <v>11526923.52211417</v>
+        <v>966628.1764732003</v>
       </c>
       <c r="E29" t="n">
-        <v>11304334.75605678</v>
+        <v>979950.018007271</v>
       </c>
       <c r="F29" t="n">
-        <v>10966788.27583295</v>
+        <v>994323.200972518</v>
       </c>
       <c r="G29" t="n">
-        <v>10478962.30625376</v>
+        <v>1008538.363704866</v>
       </c>
       <c r="H29" t="n">
-        <v>9885090.917970948</v>
+        <v>1021677.986541184</v>
       </c>
       <c r="I29" t="n">
-        <v>9285846.979249399</v>
+        <v>1035827.289383667</v>
       </c>
       <c r="J29" t="n">
-        <v>8756329.297629001</v>
+        <v>1049898.484712081</v>
       </c>
       <c r="K29" t="n">
-        <v>8290259.354998018</v>
+        <v>1062845.856435748</v>
       </c>
       <c r="L29" t="n">
-        <v>7819153.707305219</v>
+        <v>1076756.404611958</v>
       </c>
       <c r="M29" t="n">
-        <v>7280154.437267456</v>
+        <v>1090669.174742939</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30649829.21075732</v>
+        <v>234173.1045686087</v>
       </c>
       <c r="C30" t="n">
-        <v>30649826.16132735</v>
+        <v>234173.0128236369</v>
       </c>
       <c r="D30" t="n">
-        <v>30649822.92235803</v>
+        <v>234172.8662431384</v>
       </c>
       <c r="E30" t="n">
-        <v>30649819.55767118</v>
+        <v>234172.6655409497</v>
       </c>
       <c r="F30" t="n">
-        <v>30649816.13356579</v>
+        <v>234172.4116944646</v>
       </c>
       <c r="G30" t="n">
-        <v>30649812.71751158</v>
+        <v>234172.1059398718</v>
       </c>
       <c r="H30" t="n">
-        <v>30649809.37681958</v>
+        <v>234171.7497661352</v>
       </c>
       <c r="I30" t="n">
-        <v>30649806.17731581</v>
+        <v>234171.3449077445</v>
       </c>
       <c r="J30" t="n">
-        <v>30649803.18204413</v>
+        <v>234170.8933362645</v>
       </c>
       <c r="K30" t="n">
-        <v>30649800.45002415</v>
+        <v>234170.3972507369</v>
       </c>
       <c r="L30" t="n">
-        <v>30649798.03508818</v>
+        <v>234169.8590669701</v>
       </c>
       <c r="M30" t="n">
-        <v>30649795.98482056</v>
+        <v>234169.2814057738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34176920.46031058</v>
+        <v>512105.1566842645</v>
       </c>
       <c r="C31" t="n">
-        <v>32280978.73756353</v>
+        <v>512105.155231707</v>
       </c>
       <c r="D31" t="n">
-        <v>34207249.71496545</v>
+        <v>512105.1440037406</v>
       </c>
       <c r="E31" t="n">
-        <v>33341497.37272274</v>
+        <v>512105.1464195716</v>
       </c>
       <c r="F31" t="n">
-        <v>31809371.44474256</v>
+        <v>512105.1517430793</v>
       </c>
       <c r="G31" t="n">
-        <v>33711977.82497221</v>
+        <v>512105.1457134963</v>
       </c>
       <c r="H31" t="n">
-        <v>33948682.27268073</v>
+        <v>512105.1564213173</v>
       </c>
       <c r="I31" t="n">
-        <v>31866298.88983183</v>
+        <v>512105.1449173364</v>
       </c>
       <c r="J31" t="n">
-        <v>33073677.08282525</v>
+        <v>512105.156397513</v>
       </c>
       <c r="K31" t="n">
-        <v>34318886.01863963</v>
+        <v>512105.1549705727</v>
       </c>
       <c r="L31" t="n">
-        <v>32256644.39253587</v>
+        <v>512105.148043283</v>
       </c>
       <c r="M31" t="n">
-        <v>32437439.77663619</v>
+        <v>512105.1545266294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43907.31969500473</v>
+        <v>1393776.628465867</v>
       </c>
       <c r="C32" t="n">
-        <v>43911.45151400706</v>
+        <v>1227678.325754807</v>
       </c>
       <c r="D32" t="n">
-        <v>43915.581044666</v>
+        <v>1046046.097821214</v>
       </c>
       <c r="E32" t="n">
-        <v>43919.70828511007</v>
+        <v>866693.9164518774</v>
       </c>
       <c r="F32" t="n">
-        <v>43923.8332334687</v>
+        <v>701484.966917324</v>
       </c>
       <c r="G32" t="n">
-        <v>43927.95588787738</v>
+        <v>556725.7691437199</v>
       </c>
       <c r="H32" t="n">
-        <v>43932.07624647068</v>
+        <v>434560.468239075</v>
       </c>
       <c r="I32" t="n">
-        <v>43936.1943073906</v>
+        <v>334428.5821270067</v>
       </c>
       <c r="J32" t="n">
-        <v>43940.31006877916</v>
+        <v>254247.4860804652</v>
       </c>
       <c r="K32" t="n">
-        <v>43944.42352878349</v>
+        <v>191252.7530913257</v>
       </c>
       <c r="L32" t="n">
-        <v>43948.53468555165</v>
+        <v>142537.8839861862</v>
       </c>
       <c r="M32" t="n">
-        <v>43952.64353723451</v>
+        <v>105366.0832879558</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1325044.249791206</v>
+        <v>1508258.070345849</v>
       </c>
       <c r="C33" t="n">
-        <v>1321980.620293199</v>
+        <v>1446581.333038687</v>
       </c>
       <c r="D33" t="n">
-        <v>1322380.861272372</v>
+        <v>1381923.621409146</v>
       </c>
       <c r="E33" t="n">
-        <v>1326121.564577769</v>
+        <v>1315146.93657918</v>
       </c>
       <c r="F33" t="n">
-        <v>1332102.94059403</v>
+        <v>1247079.79502881</v>
       </c>
       <c r="G33" t="n">
-        <v>1338569.449068797</v>
+        <v>1178490.873208259</v>
       </c>
       <c r="H33" t="n">
-        <v>1343618.261491462</v>
+        <v>1110073.052420957</v>
       </c>
       <c r="I33" t="n">
-        <v>1345755.699195757</v>
+        <v>1042435.173008577</v>
       </c>
       <c r="J33" t="n">
-        <v>1344342.822228256</v>
+        <v>976099.3932225445</v>
       </c>
       <c r="K33" t="n">
-        <v>1339793.258310547</v>
+        <v>911502.518545938</v>
       </c>
       <c r="L33" t="n">
-        <v>1333454.575485262</v>
+        <v>849000.043172239</v>
       </c>
       <c r="M33" t="n">
-        <v>1327204.487142239</v>
+        <v>788871.9445648775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6080727.774464129</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="C34" t="n">
-        <v>6043891.411404569</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="D34" t="n">
-        <v>5995842.983472394</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="E34" t="n">
-        <v>5936888.267020602</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="F34" t="n">
-        <v>5867390.562207653</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="G34" t="n">
-        <v>5787767.055074938</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="H34" t="n">
-        <v>5698484.748056632</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="I34" t="n">
-        <v>5600056.012330842</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="J34" t="n">
-        <v>5493033.81905362</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="K34" t="n">
-        <v>5378006.709243368</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="L34" t="n">
-        <v>5255593.563878274</v>
+        <v>1908307.35733535</v>
       </c>
       <c r="M34" t="n">
-        <v>5126438.236643523</v>
+        <v>1908307.35733535</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3385300.270069567</v>
+        <v>1269146.986480502</v>
       </c>
       <c r="C35" t="n">
-        <v>2827560.79123748</v>
+        <v>1090881.573285587</v>
       </c>
       <c r="D35" t="n">
-        <v>2281199.922107242</v>
+        <v>903363.1532485695</v>
       </c>
       <c r="E35" t="n">
-        <v>1789324.661899769</v>
+        <v>743535.5076528676</v>
       </c>
       <c r="F35" t="n">
-        <v>1371490.392913853</v>
+        <v>622906.7926339298</v>
       </c>
       <c r="G35" t="n">
-        <v>1031283.42554661</v>
+        <v>538751.6019585787</v>
       </c>
       <c r="H35" t="n">
-        <v>763084.5304181925</v>
+        <v>483179.6517959601</v>
       </c>
       <c r="I35" t="n">
-        <v>556959.2740330329</v>
+        <v>447938.4805236371</v>
       </c>
       <c r="J35" t="n">
-        <v>401759.7408496989</v>
+        <v>426273.9155640552</v>
       </c>
       <c r="K35" t="n">
-        <v>286865.064431062</v>
+        <v>413279.4281877449</v>
       </c>
       <c r="L35" t="n">
-        <v>203006.7442257325</v>
+        <v>405639.0804752443</v>
       </c>
       <c r="M35" t="n">
-        <v>142535.3652601592</v>
+        <v>401219.7318200975</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2291508.041090204</v>
+        <v>1011394.917034826</v>
       </c>
       <c r="C36" t="n">
-        <v>2291512.978983575</v>
+        <v>1011394.918475086</v>
       </c>
       <c r="D36" t="n">
-        <v>2291518.404550789</v>
+        <v>1011394.91929577</v>
       </c>
       <c r="E36" t="n">
-        <v>2291524.142666035</v>
+        <v>1011394.919495027</v>
       </c>
       <c r="F36" t="n">
-        <v>2291530.008096558</v>
+        <v>1011394.919072408</v>
       </c>
       <c r="G36" t="n">
-        <v>2291535.811493954</v>
+        <v>1011394.918028866</v>
       </c>
       <c r="H36" t="n">
-        <v>2291541.365560404</v>
+        <v>1011394.916366754</v>
       </c>
       <c r="I36" t="n">
-        <v>2291546.490991008</v>
+        <v>1011394.914089818</v>
       </c>
       <c r="J36" t="n">
-        <v>2291551.022336549</v>
+        <v>1011394.911203192</v>
       </c>
       <c r="K36" t="n">
-        <v>2291554.813349322</v>
+        <v>1011394.907713383</v>
       </c>
       <c r="L36" t="n">
-        <v>2291557.74161612</v>
+        <v>1011394.903628259</v>
       </c>
       <c r="M36" t="n">
-        <v>2291559.712651689</v>
+        <v>1011394.898957029</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4872368.934404382</v>
+        <v>3184785.937401842</v>
       </c>
       <c r="C37" t="n">
-        <v>4884317.305674968</v>
+        <v>3298343.137096809</v>
       </c>
       <c r="D37" t="n">
-        <v>4875880.0359083</v>
+        <v>3195744.634403476</v>
       </c>
       <c r="E37" t="n">
-        <v>4877531.766558014</v>
+        <v>3287922.114275841</v>
       </c>
       <c r="F37" t="n">
-        <v>4883331.227956956</v>
+        <v>3212110.271755868</v>
       </c>
       <c r="G37" t="n">
-        <v>4872338.431924214</v>
+        <v>3272532.571646425</v>
       </c>
       <c r="H37" t="n">
-        <v>4884211.650557884</v>
+        <v>3231557.450354518</v>
       </c>
       <c r="I37" t="n">
-        <v>4876080.909737693</v>
+        <v>3253410.220435883</v>
       </c>
       <c r="J37" t="n">
-        <v>4877315.44874131</v>
+        <v>3251644.273968036</v>
       </c>
       <c r="K37" t="n">
-        <v>4883479.141289693</v>
+        <v>3232495.83854255</v>
       </c>
       <c r="L37" t="n">
-        <v>4872315.551785901</v>
+        <v>3270208.169502885</v>
       </c>
       <c r="M37" t="n">
-        <v>4884099.384056778</v>
+        <v>3212293.268698185</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2537588.111198899</v>
+        <v>2488766.250339866</v>
       </c>
       <c r="C38" t="n">
-        <v>2537588.111198899</v>
+        <v>2591247.715097686</v>
       </c>
       <c r="D38" t="n">
-        <v>2537588.111198899</v>
+        <v>2523540.74854284</v>
       </c>
       <c r="E38" t="n">
-        <v>2537588.111198898</v>
+        <v>2555273.989773995</v>
       </c>
       <c r="F38" t="n">
-        <v>2537588.111198897</v>
+        <v>2528529.25399069</v>
       </c>
       <c r="G38" t="n">
-        <v>2537588.111198898</v>
+        <v>2513384.898534506</v>
       </c>
       <c r="H38" t="n">
-        <v>2537588.111198897</v>
+        <v>2590476.15666682</v>
       </c>
       <c r="I38" t="n">
-        <v>2537588.111198897</v>
+        <v>2509993.324729902</v>
       </c>
       <c r="J38" t="n">
-        <v>2537588.111198897</v>
+        <v>2572723.711034315</v>
       </c>
       <c r="K38" t="n">
-        <v>2537588.111198897</v>
+        <v>2497921.186894811</v>
       </c>
       <c r="L38" t="n">
-        <v>2537588.111198896</v>
+        <v>2551548.728582261</v>
       </c>
       <c r="M38" t="n">
-        <v>2537588.111198895</v>
+        <v>2566829.052433468</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2629753.883920497</v>
+        <v>2937910.232070273</v>
       </c>
       <c r="C39" t="n">
-        <v>2629753.883919904</v>
+        <v>2937908.793422217</v>
       </c>
       <c r="D39" t="n">
-        <v>2629753.883919269</v>
+        <v>2937909.807547575</v>
       </c>
       <c r="E39" t="n">
-        <v>2629753.883918593</v>
+        <v>2937911.658419966</v>
       </c>
       <c r="F39" t="n">
-        <v>2629753.883917875</v>
+        <v>2937912.521990482</v>
       </c>
       <c r="G39" t="n">
-        <v>2629753.883917117</v>
+        <v>2937911.700065918</v>
       </c>
       <c r="H39" t="n">
-        <v>2629753.883916317</v>
+        <v>2937912.271133357</v>
       </c>
       <c r="I39" t="n">
-        <v>2629753.883915475</v>
+        <v>2937910.305208742</v>
       </c>
       <c r="J39" t="n">
-        <v>2629753.883914592</v>
+        <v>2937907.48955684</v>
       </c>
       <c r="K39" t="n">
-        <v>2629753.883913669</v>
+        <v>2937908.249662138</v>
       </c>
       <c r="L39" t="n">
-        <v>2629753.883912703</v>
+        <v>2937907.858747306</v>
       </c>
       <c r="M39" t="n">
-        <v>2629753.883911696</v>
+        <v>2937906.420184283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7473591.137341857</v>
+        <v>4207030.228643239</v>
       </c>
       <c r="C40" t="n">
-        <v>7473591.137341857</v>
+        <v>4181693.043174993</v>
       </c>
       <c r="D40" t="n">
-        <v>7473591.137341827</v>
+        <v>4152365.647037119</v>
       </c>
       <c r="E40" t="n">
-        <v>7473591.137341946</v>
+        <v>4119245.159970136</v>
       </c>
       <c r="F40" t="n">
-        <v>7473591.137342006</v>
+        <v>4082548.582681168</v>
       </c>
       <c r="G40" t="n">
-        <v>7473591.137342006</v>
+        <v>4042510.78040337</v>
       </c>
       <c r="H40" t="n">
-        <v>7473591.137342095</v>
+        <v>3999382.407758269</v>
       </c>
       <c r="I40" t="n">
-        <v>7473591.137342185</v>
+        <v>3953427.806230879</v>
       </c>
       <c r="J40" t="n">
-        <v>7473591.137342304</v>
+        <v>3904922.904211393</v>
       </c>
       <c r="K40" t="n">
-        <v>7473591.137342334</v>
+        <v>3854153.147508942</v>
       </c>
       <c r="L40" t="n">
-        <v>7473591.137342453</v>
+        <v>3801411.485578855</v>
       </c>
       <c r="M40" t="n">
-        <v>7473591.137342364</v>
+        <v>3746996.435519528</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6541220.723284811</v>
+        <v>2234270.080402406</v>
       </c>
       <c r="C41" t="n">
-        <v>6541220.723239322</v>
+        <v>2206448.033765661</v>
       </c>
       <c r="D41" t="n">
-        <v>6541220.723191615</v>
+        <v>2218120.284852258</v>
       </c>
       <c r="E41" t="n">
-        <v>6541220.723141691</v>
+        <v>2199533.248320383</v>
       </c>
       <c r="F41" t="n">
-        <v>6541220.723089549</v>
+        <v>2198269.968056136</v>
       </c>
       <c r="G41" t="n">
-        <v>6541220.72303519</v>
+        <v>2189013.428215041</v>
       </c>
       <c r="H41" t="n">
-        <v>6541220.722978618</v>
+        <v>2175012.213200599</v>
       </c>
       <c r="I41" t="n">
-        <v>6541220.722919829</v>
+        <v>2175169.355416009</v>
       </c>
       <c r="J41" t="n">
-        <v>6541220.722858823</v>
+        <v>2148700.468677754</v>
       </c>
       <c r="K41" t="n">
-        <v>6541220.722795603</v>
+        <v>2158342.626852216</v>
       </c>
       <c r="L41" t="n">
-        <v>6541220.722730165</v>
+        <v>2119742.121988669</v>
       </c>
       <c r="M41" t="n">
-        <v>6541220.722662514</v>
+        <v>2138928.499699282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5418263.174490953</v>
+        <v>2896730.371167528</v>
       </c>
       <c r="C42" t="n">
-        <v>5418263.273018885</v>
+        <v>2896543.767103664</v>
       </c>
       <c r="D42" t="n">
-        <v>5418263.369723408</v>
+        <v>2896304.550879145</v>
       </c>
       <c r="E42" t="n">
-        <v>5418263.464601383</v>
+        <v>2896013.830525105</v>
       </c>
       <c r="F42" t="n">
-        <v>5418263.557649726</v>
+        <v>2895672.951820106</v>
       </c>
       <c r="G42" t="n">
-        <v>5418263.648865419</v>
+        <v>2895283.492022901</v>
       </c>
       <c r="H42" t="n">
-        <v>5418263.738245499</v>
+        <v>2894847.252540242</v>
       </c>
       <c r="I42" t="n">
-        <v>5418263.82578707</v>
+        <v>2894366.250564469</v>
       </c>
       <c r="J42" t="n">
-        <v>5418263.911487278</v>
+        <v>2893842.709720226</v>
       </c>
       <c r="K42" t="n">
-        <v>5418263.995343351</v>
+        <v>2893279.049764209</v>
       </c>
       <c r="L42" t="n">
-        <v>5418264.077352562</v>
+        <v>2892677.875385947</v>
       </c>
       <c r="M42" t="n">
-        <v>5418264.157512248</v>
+        <v>2892041.964161851</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4342028.853800084</v>
+        <v>2535443.992713547</v>
       </c>
       <c r="C43" t="n">
-        <v>4342028.854023006</v>
+        <v>2535445.693072264</v>
       </c>
       <c r="D43" t="n">
-        <v>4342028.854032015</v>
+        <v>2535477.313149326</v>
       </c>
       <c r="E43" t="n">
-        <v>4342028.853827102</v>
+        <v>2535390.183269762</v>
       </c>
       <c r="F43" t="n">
-        <v>4342028.853408469</v>
+        <v>2535495.969577232</v>
       </c>
       <c r="G43" t="n">
-        <v>4342028.852776515</v>
+        <v>2535428.976984642</v>
       </c>
       <c r="H43" t="n">
-        <v>4342028.851931859</v>
+        <v>2535459.515076607</v>
       </c>
       <c r="I43" t="n">
-        <v>4342028.850875313</v>
+        <v>2535479.930243177</v>
       </c>
       <c r="J43" t="n">
-        <v>4342028.849607904</v>
+        <v>2535444.208791601</v>
       </c>
       <c r="K43" t="n">
-        <v>4342028.848130861</v>
+        <v>2535523.733997131</v>
       </c>
       <c r="L43" t="n">
-        <v>4342028.846445614</v>
+        <v>2535432.198592099</v>
       </c>
       <c r="M43" t="n">
-        <v>4342028.844553793</v>
+        <v>2535520.970225545</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7406723.398546402</v>
+        <v>4509679.342985353</v>
       </c>
       <c r="C44" t="n">
-        <v>7400839.219923155</v>
+        <v>4509694.933618444</v>
       </c>
       <c r="D44" t="n">
-        <v>7420293.539113269</v>
+        <v>4509706.053568222</v>
       </c>
       <c r="E44" t="n">
-        <v>7448980.928372774</v>
+        <v>4509712.694000684</v>
       </c>
       <c r="F44" t="n">
-        <v>7463163.667076899</v>
+        <v>4509714.849685462</v>
       </c>
       <c r="G44" t="n">
-        <v>7451138.132705795</v>
+        <v>4509712.518999703</v>
       </c>
       <c r="H44" t="n">
-        <v>7422847.063861397</v>
+        <v>4509705.703929034</v>
       </c>
       <c r="I44" t="n">
-        <v>7401662.9118444</v>
+        <v>4509694.410065604</v>
       </c>
       <c r="J44" t="n">
-        <v>7405121.965733699</v>
+        <v>4509678.646603175</v>
       </c>
       <c r="K44" t="n">
-        <v>7430376.832901859</v>
+        <v>4509658.426329315</v>
       </c>
       <c r="L44" t="n">
-        <v>7456516.54818655</v>
+        <v>4509633.76561466</v>
       </c>
       <c r="M44" t="n">
-        <v>7461926.521382494</v>
+        <v>4509604.684399284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5147768.684874506</v>
+        <v>2283816.167371574</v>
       </c>
       <c r="C45" t="n">
-        <v>4951164.336077796</v>
+        <v>2282514.950264854</v>
       </c>
       <c r="D45" t="n">
-        <v>4732573.713620924</v>
+        <v>2281168.176760668</v>
       </c>
       <c r="E45" t="n">
-        <v>4503759.769292114</v>
+        <v>2279851.218510904</v>
       </c>
       <c r="F45" t="n">
-        <v>4273366.285308633</v>
+        <v>2278637.781744265</v>
       </c>
       <c r="G45" t="n">
-        <v>4047391.294989724</v>
+        <v>2277595.781795261</v>
       </c>
       <c r="H45" t="n">
-        <v>3830702.126025611</v>
+        <v>2276783.541122125</v>
       </c>
       <c r="I45" t="n">
-        <v>3625843.245178265</v>
+        <v>2276246.523829883</v>
       </c>
       <c r="J45" t="n">
-        <v>3434800.877527467</v>
+        <v>2276014.789768949</v>
       </c>
       <c r="K45" t="n">
-        <v>3258866.921345172</v>
+        <v>2276101.311018583</v>
       </c>
       <c r="L45" t="n">
-        <v>3097907.233321439</v>
+        <v>2276501.245239335</v>
       </c>
       <c r="M45" t="n">
-        <v>2952034.035031475</v>
+        <v>2277192.2067072</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7479569.61932129</v>
+        <v>2021417.187663045</v>
       </c>
       <c r="C46" t="n">
-        <v>7479569.62138227</v>
+        <v>2021417.187656967</v>
       </c>
       <c r="D46" t="n">
-        <v>7479569.623409349</v>
+        <v>2021417.187650545</v>
       </c>
       <c r="E46" t="n">
-        <v>7479569.62540253</v>
+        <v>2021417.187643779</v>
       </c>
       <c r="F46" t="n">
-        <v>7479569.627361807</v>
+        <v>2021417.18763667</v>
       </c>
       <c r="G46" t="n">
-        <v>7479569.629287191</v>
+        <v>2021417.187629217</v>
       </c>
       <c r="H46" t="n">
-        <v>7479569.631178679</v>
+        <v>2021417.187621421</v>
       </c>
       <c r="I46" t="n">
-        <v>7479569.633036265</v>
+        <v>2021417.187613282</v>
       </c>
       <c r="J46" t="n">
-        <v>7479569.634859949</v>
+        <v>2021417.1876048</v>
       </c>
       <c r="K46" t="n">
-        <v>7479569.636649732</v>
+        <v>2021417.187595975</v>
       </c>
       <c r="L46" t="n">
-        <v>7479569.638405615</v>
+        <v>2021417.187586806</v>
       </c>
       <c r="M46" t="n">
-        <v>7479569.640127592</v>
+        <v>2021417.187577294</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1858873.486460315</v>
+        <v>1862044.886618899</v>
       </c>
       <c r="C47" t="n">
-        <v>1892201.820753364</v>
+        <v>1849075.320698309</v>
       </c>
       <c r="D47" t="n">
-        <v>1920654.126372012</v>
+        <v>1827733.520301837</v>
       </c>
       <c r="E47" t="n">
-        <v>1944320.85697601</v>
+        <v>1798953.096417488</v>
       </c>
       <c r="F47" t="n">
-        <v>1963326.616574903</v>
+        <v>1763797.992039858</v>
       </c>
       <c r="G47" t="n">
-        <v>1977823.903229771</v>
+        <v>1723089.274327284</v>
       </c>
       <c r="H47" t="n">
-        <v>1987986.760923187</v>
+        <v>1677751.351150356</v>
       </c>
       <c r="I47" t="n">
-        <v>1994005.660022852</v>
+        <v>1628645.382987252</v>
       </c>
       <c r="J47" t="n">
-        <v>1996084.012708383</v>
+        <v>1576647.977863169</v>
       </c>
       <c r="K47" t="n">
-        <v>1994434.990957398</v>
+        <v>1522540.732053104</v>
       </c>
       <c r="L47" t="n">
-        <v>1989277.756506809</v>
+        <v>1466999.426644043</v>
       </c>
       <c r="M47" t="n">
-        <v>1980834.084721183</v>
+        <v>1410465.037943459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>317081.1136451419</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="C48" t="n">
-        <v>198754.2719231503</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="D48" t="n">
-        <v>167335.2078782623</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="E48" t="n">
-        <v>161156.3847141854</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="F48" t="n">
-        <v>160111.5703500158</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="G48" t="n">
-        <v>159949.1852823542</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="H48" t="n">
-        <v>159927.982213159</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="I48" t="n">
-        <v>159930.7808195591</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="J48" t="n">
-        <v>159937.360431186</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="K48" t="n">
-        <v>159941.4880136228</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="L48" t="n">
-        <v>159940.5146000562</v>
+        <v>2669216.563987621</v>
       </c>
       <c r="M48" t="n">
-        <v>159934.9358991544</v>
+        <v>2669216.563987621</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>520889.8815616777</v>
+        <v>275904.0286449464</v>
       </c>
       <c r="C49" t="n">
-        <v>520915.3284237148</v>
+        <v>275904.028645027</v>
       </c>
       <c r="D49" t="n">
-        <v>520904.8954852027</v>
+        <v>275904.0286451071</v>
       </c>
       <c r="E49" t="n">
-        <v>520894.9502799357</v>
+        <v>275904.0286451834</v>
       </c>
       <c r="F49" t="n">
-        <v>520817.6302558485</v>
+        <v>275904.0286452654</v>
       </c>
       <c r="G49" t="n">
-        <v>520927.6844270873</v>
+        <v>275904.0286453422</v>
       </c>
       <c r="H49" t="n">
-        <v>520946.502756238</v>
+        <v>275904.0286454251</v>
       </c>
       <c r="I49" t="n">
-        <v>520857.5940870611</v>
+        <v>275904.0286455038</v>
       </c>
       <c r="J49" t="n">
-        <v>520847.2888772619</v>
+        <v>275904.0286455839</v>
       </c>
       <c r="K49" t="n">
-        <v>520847.7255447091</v>
+        <v>275904.0286456626</v>
       </c>
       <c r="L49" t="n">
-        <v>520873.5354550764</v>
+        <v>275904.0286457436</v>
       </c>
       <c r="M49" t="n">
-        <v>520719.2645937539</v>
+        <v>275904.0286458228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1285772.489603085</v>
+        <v>2344713.881793756</v>
       </c>
       <c r="C50" t="n">
-        <v>1248977.61854569</v>
+        <v>2337287.952658211</v>
       </c>
       <c r="D50" t="n">
-        <v>1209318.845776066</v>
+        <v>2320966.790366769</v>
       </c>
       <c r="E50" t="n">
-        <v>1167311.314388289</v>
+        <v>2296386.731899382</v>
       </c>
       <c r="F50" t="n">
-        <v>1123459.473363576</v>
+        <v>2264258.947815156</v>
       </c>
       <c r="G50" t="n">
-        <v>1078244.971269527</v>
+        <v>2225337.611588703</v>
       </c>
       <c r="H50" t="n">
-        <v>1032118.335247556</v>
+        <v>2180394.659265746</v>
       </c>
       <c r="I50" t="n">
-        <v>985493.6295609982</v>
+        <v>2130200.049808267</v>
       </c>
       <c r="J50" t="n">
-        <v>938745.43377753</v>
+        <v>2075506.5968074</v>
       </c>
       <c r="K50" t="n">
-        <v>892207.6024150567</v>
+        <v>2017038.580623135</v>
       </c>
       <c r="L50" t="n">
-        <v>846173.3693215986</v>
+        <v>1955483.469315922</v>
       </c>
       <c r="M50" t="n">
-        <v>800896.4443637122</v>
+        <v>1891486.179460952</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1806321.843156738</v>
+        <v>1541502.370710641</v>
       </c>
       <c r="C51" t="n">
-        <v>1603748.995984225</v>
+        <v>922616.151517486</v>
       </c>
       <c r="D51" t="n">
-        <v>1397678.093001157</v>
+        <v>493655.0570278632</v>
       </c>
       <c r="E51" t="n">
-        <v>1208661.166267073</v>
+        <v>244613.5289626954</v>
       </c>
       <c r="F51" t="n">
-        <v>1047066.949856582</v>
+        <v>114728.8823935789</v>
       </c>
       <c r="G51" t="n">
-        <v>915724.3226907353</v>
+        <v>51649.68601811511</v>
       </c>
       <c r="H51" t="n">
-        <v>812940.9311171016</v>
+        <v>22528.28066386041</v>
       </c>
       <c r="I51" t="n">
-        <v>734839.5970417222</v>
+        <v>9582.731770743841</v>
       </c>
       <c r="J51" t="n">
-        <v>676870.8228984899</v>
+        <v>3993.940101886424</v>
       </c>
       <c r="K51" t="n">
-        <v>634661.6317107662</v>
+        <v>1636.7847538582</v>
       </c>
       <c r="L51" t="n">
-        <v>604413.1974421714</v>
+        <v>661.34122867909</v>
       </c>
       <c r="M51" t="n">
-        <v>583025.6580670604</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1874270.79897753</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1874272.001142536</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1874256.219988171</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1874253.443029244</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1874295.249965146</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1874246.972710834</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1874263.309478084</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1874284.535896596</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1874288.50981863</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1874242.990329294</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1874299.072990688</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1874290.247538635</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1103304.711978611</v>
-      </c>
-      <c r="C53" t="n">
-        <v>987862.5401196957</v>
-      </c>
-      <c r="D53" t="n">
-        <v>876073.3982419812</v>
-      </c>
-      <c r="E53" t="n">
-        <v>773192.2665960476</v>
-      </c>
-      <c r="F53" t="n">
-        <v>682025.7588873456</v>
-      </c>
-      <c r="G53" t="n">
-        <v>603568.3915195733</v>
-      </c>
-      <c r="H53" t="n">
-        <v>537601.8269017312</v>
-      </c>
-      <c r="I53" t="n">
-        <v>483179.305353769</v>
-      </c>
-      <c r="J53" t="n">
-        <v>438982.090309995</v>
-      </c>
-      <c r="K53" t="n">
-        <v>403562.6270950152</v>
-      </c>
-      <c r="L53" t="n">
-        <v>375498.1660135361</v>
-      </c>
-      <c r="M53" t="n">
-        <v>353478.7273795539</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1011045.486211804</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1011045.487089931</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1011045.487950489</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1011045.488793475</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1011045.489618882</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1011045.490426705</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1011045.49121694</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1011045.491989582</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1011045.492744627</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1011045.493482069</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1011045.494201904</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1011045.494904128</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3201987.28950421</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3201970.941943941</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3201989.252256082</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3201979.181524497</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3201975.401307649</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3201990.926219965</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3201972.307023676</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3201983.64594693</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3201985.905242336</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3201971.306648511</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3201990.110335387</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3201977.578801643</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2510590.319426896</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2516335.952885318</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2522480.706277516</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2519634.741585012</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2512158.83716058</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2511406.161556609</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2518508.614955431</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2522702.68184504</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2517564.079792526</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2510955.915960481</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2512882.302657049</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2520438.166469496</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4355771.905918445</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3631457.273931387</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3123437.320251774</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2835559.107481925</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2691125.113665232</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2624126.825505736</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2594702.503155701</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2582290.174634903</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2577213.496112378</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2575187.272124261</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2574394.433525388</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2574089.250919284</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4201081.499697541</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4162519.839485011</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4118498.062782628</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4069203.507070791</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4014852.442030442</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3955687.718275197</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3891976.180628006</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3824005.888377639</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3752083.186567503</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3676529.67310252</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3597679.106329674</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3515874.296794272</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2056962.155645288</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2056959.294772309</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2056955.593047751</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2056951.530869867</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2056947.635414989</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2056944.412221614</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2056942.279583103</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2056941.514263518</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2056942.215581161</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2056944.292520438</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2056947.475544118</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2056951.351572733</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2859715.728072421</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2858996.037492876</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2858220.247850339</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2857489.066145014</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2856897.13705739</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2856520.607264151</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2856407.354516003</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2856571.123284151</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2856990.172678031</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2857610.402415471</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2858352.391106173</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2859121.404239314</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2505799.02996367</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4492164.324133568</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4492164.327629713</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4492164.330723451</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4492164.333413851</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4492164.335700099</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4492164.337581511</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4492164.339057517</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4492164.340127673</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4492164.340791657</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4492164.341049269</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4492164.340900431</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4492164.340345188</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2253765.011097712</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2252805.40611577</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2254006.544830444</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2253825.059074547</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2252796.353237947</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2253955.095431727</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2253882.992776273</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2252792.763076528</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2253900.571083103</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2253938.384992604</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2252794.661890971</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2253843.374088618</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2021797.283505258</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2021797.283503013</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2021797.283500645</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2021797.283498156</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2021797.283495545</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2021797.283492812</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2021797.283489957</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2021797.28348698</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2021797.283483882</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2021797.283480661</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2021797.28347732</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2021797.283473856</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1380385.467596398</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1099598.073453725</v>
-      </c>
-      <c r="D65" t="n">
-        <v>843274.1499675275</v>
-      </c>
-      <c r="E65" t="n">
-        <v>627439.1101453652</v>
-      </c>
-      <c r="F65" t="n">
-        <v>455568.0139696626</v>
-      </c>
-      <c r="G65" t="n">
-        <v>324193.8648377603</v>
-      </c>
-      <c r="H65" t="n">
-        <v>226867.8756537195</v>
-      </c>
-      <c r="I65" t="n">
-        <v>156524.8217806895</v>
-      </c>
-      <c r="J65" t="n">
-        <v>106690.3048956387</v>
-      </c>
-      <c r="K65" t="n">
-        <v>71963.42630083553</v>
-      </c>
-      <c r="L65" t="n">
-        <v>48097.67826460914</v>
-      </c>
-      <c r="M65" t="n">
-        <v>31888.8915311021</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2646100.710661995</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2644399.771037324</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2642438.676523346</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2640231.462341785</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2637793.922478562</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2635143.496372527</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2632299.143875941</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2629281.209390936</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2626111.276162271</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2622812.011775589</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2619407.005971162</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2615920.601936431</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>271544.3639748182</v>
-      </c>
-      <c r="C67" t="n">
-        <v>256796.6740687629</v>
-      </c>
-      <c r="D67" t="n">
-        <v>240254.8455379682</v>
-      </c>
-      <c r="E67" t="n">
-        <v>223493.328105813</v>
-      </c>
-      <c r="F67" t="n">
-        <v>207915.1024468118</v>
-      </c>
-      <c r="G67" t="n">
-        <v>194585.6207184759</v>
-      </c>
-      <c r="H67" t="n">
-        <v>184162.0902357906</v>
-      </c>
-      <c r="I67" t="n">
-        <v>176916.3488510017</v>
-      </c>
-      <c r="J67" t="n">
-        <v>172826.9370233844</v>
-      </c>
-      <c r="K67" t="n">
-        <v>171703.194552778</v>
-      </c>
-      <c r="L67" t="n">
-        <v>173302.9488842957</v>
-      </c>
-      <c r="M67" t="n">
-        <v>177414.1842265418</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1985509.619382521</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2026316.186991435</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2065799.257662303</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2104757.82459603</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2142353.82610636</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2179390.786971122</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2215035.076960598</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2250094.202664154</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2283738.634380348</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2316779.345476689</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2348390.609337674</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2379386.383447486</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2409351.279243243</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2304333.800032787</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2170824.930231102</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2017820.22097937</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1853507.766127924</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1684824.728057134</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1517322.473926407</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1355210.792950566</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1201496.822470924</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1058165.236820267</v>
-      </c>
-      <c r="L69" t="n">
-        <v>926367.1523647322</v>
-      </c>
-      <c r="M69" t="n">
-        <v>806599.0917802574</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>10525004.45931711</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10535414.86085763</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10545494.50923285</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10555241.31791363</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10564653.28322722</v>
-      </c>
-      <c r="G71" t="n">
-        <v>10573728.48505011</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10582465.08746217</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10590861.33936162</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10598915.57504066</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10606626.21472123</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10613991.76505075</v>
-      </c>
-      <c r="M71" t="n">
-        <v>10621010.81955758</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1528176.862965366</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1528176.881500092</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1528177.024382407</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1528176.733870134</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1528176.921221267</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1528177.048615257</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1528176.929139806</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1528176.938743747</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1528177.076389422</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1528177.008240932</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1528176.998151553</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1528176.762850166</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15557246.72133395</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15557254.65831539</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15557314.63604529</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15557292.67058266</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15557237.83046702</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15557272.62273522</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15557319.32513444</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15557273.60940452</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15557237.59969122</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15557291.73788869</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15557315.08497608</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15557255.48600337</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>12364506.65694109</v>
-      </c>
-      <c r="C75" t="n">
-        <v>12140628.43949094</v>
-      </c>
-      <c r="D75" t="n">
-        <v>12719329.51343106</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12406713.67219308</v>
-      </c>
-      <c r="F75" t="n">
-        <v>12118397.46052934</v>
-      </c>
-      <c r="G75" t="n">
-        <v>12697585.41125228</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12449140.48392664</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12100749.50389785</v>
-      </c>
-      <c r="J75" t="n">
-        <v>12671399.09982407</v>
-      </c>
-      <c r="K75" t="n">
-        <v>12491122.38645849</v>
-      </c>
-      <c r="L75" t="n">
-        <v>12087946.25499182</v>
-      </c>
-      <c r="M75" t="n">
-        <v>12641203.47785755</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2344019.565614492</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2385953.178034216</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2427632.644018382</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2469049.083028913</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2510193.933031671</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2551058.943660252</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2591636.169500254</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2631917.963492408</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2671896.970452517</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2711566.120706379</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2750918.623837933</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2789947.962548718</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>9959663.656092839</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9368541.783355998</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8659348.293846799</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7893580.445429434</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7121884.574762602</v>
-      </c>
-      <c r="G77" t="n">
-        <v>6381281.770475699</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5695930.861988081</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5079346.771186355</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4536970.412983723</v>
-      </c>
-      <c r="K77" t="n">
-        <v>4068554.752380623</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3670150.166680465</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3335641.38097898</v>
+        <v>264.0058898979566</v>
       </c>
     </row>
   </sheetData>
